--- a/documents/teacher/Bio1.xlsx
+++ b/documents/teacher/Bio1.xlsx
@@ -371,7 +371,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -393,17 +393,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -420,12 +420,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -469,14 +469,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>0</t>
@@ -484,7 +484,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/documents/teacher/Bio1.xlsx
+++ b/documents/teacher/Bio1.xlsx
@@ -361,17 +361,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -383,7 +383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -410,27 +410,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -447,12 +447,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/documents/teacher/Bio1.xlsx
+++ b/documents/teacher/Bio1.xlsx
@@ -356,49 +356,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -410,14 +410,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>0</t>
@@ -430,7 +430,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -447,12 +447,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -491,7 +491,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/documents/teacher/Bio1.xlsx
+++ b/documents/teacher/Bio1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,27 +356,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -388,17 +388,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -410,7 +410,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,7 +420,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -491,14 +491,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>0</t>
@@ -511,34 +511,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -592,7 +592,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
